--- a/output/edit_sequence_design/one_plasmid_design_result.xlsx
+++ b/output/edit_sequence_design/one_plasmid_design_result.xlsx
@@ -151,25 +151,25 @@
     <t>CCAGGTCTCAGTAAGCTTTTAAGTTTTCTCGGTGATCCG</t>
   </si>
   <si>
-    <t>CCAGGTCTCAGCGATTATTTCCGTGCGCGTTGGTGA</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAAAACAATTGCCTGTACATTAAGA</t>
+    <t>CCAGGTCTCAGCGAGTTATTTCCGTGCGCGTTGGTGA</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAAAACTACATGCGATTCTTGGTGCGCG</t>
   </si>
   <si>
     <t>CCAGGTCTCAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCT</t>
   </si>
   <si>
-    <t>CCAGGTCTCAttaaGAAAACTCCTTTATTGTCGT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATGGCGCGGTTAAGTTGCTGAAGCCTCACGCAT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGTCTAGTGGTGGTGATGCGCTTCGG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATTTATTCTTCTTCGCGCCCAATAA</t>
+    <t>CCAGGTCTCAttaaCTACCTATTTGCGCGGTACCACT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGTCTCAAAGTGGTGGTGATGCGCTTCG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATTTAGACTTCTTCTTCGCGCCCAA</t>
   </si>
   <si>
     <t>CCAGGTCTCAGGCACCTGAAATTTCCGTCATGCCGACC</t>
@@ -178,19 +178,19 @@
     <t>GGTCCAGAGTCTCACGCGCACGCCTCATGGATTC</t>
   </si>
   <si>
-    <t>GGTCCAGAGTCTCAGAAGCCATAGAAGCCTGCAT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTCAATCCTGCCAGCGGAACCTGC</t>
+    <t>GGTCCAGAGTCTCAGCCTGCATTTATAAAGTGCTGACCC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTCAGGTGGTGTCCGAAAACCCGC</t>
   </si>
   <si>
     <t>GGTCCAGAGTCTCAAAGCTTGGGCCATTCCTGCT</t>
   </si>
   <si>
-    <t>GGTCCAGAGTCTCAGCAACGAACTCGCCGGCATC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTCAGGGAATCAAGGTTGGCTGCTGG</t>
+    <t>GGTCCAGAGTCTCATCCACATTGTTCGTGATCGCTTCGA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTCATGGCTGCTGGACAATTCGGGA</t>
   </si>
   <si>
     <t>GGTCCAGAGTCTCATGATCCTGCCGGTGAAGCGG</t>
@@ -205,25 +205,25 @@
     <t>CCAGGTCTCAGTAAGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGACTCTGGACC</t>
   </si>
   <si>
-    <t>CCAGGTCTCAGCGATTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAAAACAATTGCCTGTACATTAAGAATTTGCTGAGTGAACACATCTTTTTCCTAACTTCTACAGAGAAACCTAAGGCGATGATGTGTTTTCTAGCGGGTTGTGGAAAGTAAATTTTTCCTTCGTGGCGAAGCGGATATCCCCACAAAGAGATGTCATTTTCTAACGTAAGGGCACTGTCCTTTCAAGAGTTGCGCCAGGGGTTGTGCTCTTATATCTAACCGTATCGACAAGATTCATTATGGAATGGAAAGTAGGAAAGTCATTGTGGGCTGTGCTGAGAAACAAGACTTCACCAAACTTTTATCAAAACAAAAGACCAGGTGGACTCCCACAGCACTGATTTCTCTCGGTTGTATCGTTGTCGCTATTTTAGCTTTAGTAGTTTTCCATGGTTCTTCCAGGTCGTGCATCTTTCACCAAGTAATTTGCCCTTTGATTCTGGGAATTTCTGGAGCAATTGCAGGAATCGTCGCAAAGAAACCACTGCTGACTGGCATTAATCTCGGCTTCGCATTCTTCTTAGTGCCTGCGTATTTAATATTTTTCGGCAATATTTTCTGACAGCCTAGGTGATTTTGTAGGAAGAATCCCCAACGCATCCACGGAAGCACCTTCTGGCAGCTGCGAACGTTCGAGCCGGCTATCATCACGTTTCCGCACTACTCGCGCAGGGTTGCCCACAGCAATAGAATCATCCGGAATATCCTTGGTCACCACGGCCCCCGCGCCAATCACACACCTATCGCCAATGCTCACGCCACCAACGACGGTGACATTTCCACCCAGCCACGTATCCTCGCCAATGGAAATGGGTGCGCCATTTTCCCACCCACCGGAGCGCATTTCCCAGTCATCGACCGGGTGACCTGCGGTGAAGAGCTGACAGTTTGGCCCGAGCATGCTGCGTGCCCCGATGCGAACCGGTGCGATATCTAAAATGGTGAGGCCAAAGTTGATGAACACATGCTCGCCGATCGTGGTGTTGAAGCCGTATTCAATGATGGCTGGCGCTTTGATCGTGCAGGTTCCGCTGGCAGGATACTCTGGACC</t>
+    <t>CCAGGTCTCAGCGAGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGGGTTCCACTGGCTAAAAGGTATTCTCCATTGTCTATTTTTCGGCCGATGAGCTGCGGGAATGCAGCGCCTACGATTTGCCCCGCACTCGCTTTTCCAACCGACGCAGGTGCCAAACGGCGAAGGCGTTCCACTTCACGCTTGTCGGGTTGTTGCTTTTCGACGTCCCCCTGCGGGTTTTCGGACACCACCACTCTGGACC</t>
   </si>
   <si>
     <t>CCAGGTCTCAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACCCACAGCAGAAGTAGTGGAGTACTTATCCCACCTGCGCGCAGATGGCATTGTGCGAGATGCTGAAGCCCTGCGTAAGCATTTGGGTGTGAATCAGTGGAACCTTTTAGGCCAGTCCTTCGGAGGTTTCACCACCCTGCATTACTTGTCCCGGCACGCCGATTCCTTGGACAACGTGTTTATTACCGGCGGTCTCAGCGCTATTGATCGCCCAGCAGAAGACGTGTATGCCAACTGTTACAACCGCATGCGCCGAAACTCTGAGGAATTCTACCGTCGCTTCCCGCAATTACGGGAAACTTTCCGAGGGTTGGTTAATCGTGCTCGCGCCGGGGAGATTGTGCTTCCCACCGGCGAAGTTGTGTCAGAAACCAGGCTGCGATCCCTTGGTCACTTGTTGGGTAGCAATGACGGCTGGTTTGATCTGTACAACCTGCTGGAATTAGATCCCACCTCCAACGCTTTTGTCCATGACCTGGCAGGACTTTTGCCTTTCGGCAACCGCAACCCAATTTATTACGTGCTCCATGAGTCCTCTTACGCCGACGGTGTGGTGACAAATTGGGCAGCAGAGCGTGTGCTTCCAGAGGATTTCCGCGAGGATCCAACACTGCTCACCGGTGAGCACGTGTTCCAGGAGTGGACAGACACCGTGCCGTCGCTCAAGCCGTGGAAGGACGTTGCCCTGGCATTGGCTCAGCAGGAATGGCCCAAGCTTACTCTGGACC</t>
   </si>
   <si>
-    <t>CCAGGTCTCAttaaGAAAACTCCTTTATTGTCGTTAAATAACATCTTCAGGTTAGCTTGCTTTTGTGGCCAAGCGCATCGAAGAGTGTTCAAAGTGGGAAACACGACAAATTTAGGTGCGTTTATTGGGCTGCTTTTCGACGTGGCCATCCGGCTACTTGGCGTCCTCCTTAACCCAACGCTTGTGGTGGCGTGCCCGGTGTTGGGCGACTGTTTGCGCCCATCTCGCATTTTTGGGATTGAGCGGCCCGTTGGGTTCTGACACTGCCCATGTTCCGTCTCCCATGAGCCAGACGATGATGCCGGAGAAGGGATCGAGAAGGTAGGTGACTCGGCCGTCGGTTTTCATGTTGTGGTGGTGTTGACAGAGGCAGCCGATTCCGCCTAGGCAAGTTTCTCCGCCTTCTTCGTAGGGGATGCGGTGGTCGGCTTGGGTTTTGAGCGCTGGGACTGAACAGCCAGGGAATCGGCAGGTGCCATCACGACCAATGAGTGCGTCACGCAACGCTGGTGGAGGATCGTGTTTGTCGGTGCTGATTTTGGCAGCCGCATCCATGTCTTGTTCTTTGTTGGCTTTCTCTGACCAGAATGTTCCAGTCTTGGCATCCAACCAGCCGATTCCGCTGGCCCACACTGGGGCGTTGGCGAGGTCTTTGGCGGTGTACAAGTTGAGGACTACCTTGACTTGGATATTGTTCCGAAGGATGTCGCTGAAAGCTTCGCCGTAGGTGAGGTCGTTTTTCTTCGCGTGTTGGGTGACGGCGTCGTTGATGATGTGCCCGTCCACAGCATCGACGGAGGCTCCGATTTCGGCGGTTCCGTCTGGGGAGAAGGTCACTCCGAAAGAGCTGTCGTCTTGGGTACCGCGCGAACCGGTGGCTCTTGCGTCGTCAAGCAAATCTCTTATTTCTTTTATCTTGCGTCCTATGGACGCCGGGCTTGGCAGAATCTGGTTGGGGCTGGTGGCGGTGAGGTATTCGGTGAGGATTGCGTCGGCGCCGGCGAGGTTGTCGGGGTTGATGCCGGCGAGTTCGTTGCACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATGGCGCGGTTAAGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCCAAACGCATTTTCATCCCGAATTGTCCAGCAGCCAACCTTGATTCCCACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGTCTAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCCCAATATCTTAAAATCCGTCCCGCTTCACCGGCAGGATCAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATTTATTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTTCATCTACACGCGCTTGCTTCGACTCTGGACC</t>
+    <t>CCAGGTCTCAttaaCTACCTATTTGCGCGGTACCACTTAATCAGTGAATCAGTGGAAGAATCTCCCGAGTCAACATCCTCTTCACCAGAGACAGCCGGAGCGAGGTCATTTGCCTGCTGTTTGCCCAGTTCAACACCCCATTGGTCGAAGGAGTTGATGTCCCAAATCACGCCCTGAACCATCACGATGTGTTCGTACAAAGCGATCAACGCACCGAGAATAGAAGGGGTAAGTTCCTCCGCCAAAATGGTGGTGGTTGGGCGATTACCTGGCATGACCTTGTGGTTGACCAGCTCAGGTGCGACACCTTCCGCAGCGATCTCTTCAGCGTTCTTACCGAAAGCCAAAACCTTGGTCTGTGCGAAGAAGTTGCTCATCAAAAGGTCATGCATGGTGCGCTCACCGGCAGGAAGATCCTGCTTTGGACGAGCGAAACCAATGAAATCAGCTGGAACAAGGCGAGTGCCCTGGTGGATCAGCTGGAAGAAAGCGTGCTGGCCATTTGTGCCAGGCTCACCCCAGTAAATTTCGCCAGTGCCAGTGGAAACAGGGGAGCCGTCGCGGTGGACTGACTTGCCATTTGATTCCATGGTCAGCTGCTGGAGGTAAGCAGCAAAACGGCTGAGATCCTCGGAATAAGGTAGGACAGCGTGGGTTTCTGCACCATAGAAATCGGAGTACCAGACACCGAGCAGAGCCATCAAGATTGGAACGTTCTCTTCGAACTTGGTGGTGCGGAAGTGTTCATCCATCGCGTGGAATCCACCGAGGAAACGCATGAAGTCGCGAGGGCCGATCACTGCCATGAGGGAAAGACCAACTGCGGAGTCCACGGAGTAACGACCTCCGACCCAGTCCCAGAAGCCGAACATGTTGTCCGTGTCGATACCGAACTCTGCGACCTTTTCAGCATTGGTGGACACTGCGACGAAGTGCTTCGCGACAGCCTCTTCACCGAGCTTCTCTACCAGCCAAGCACGAGCTGCACGAGCGTTGGACAGCGTCTCCTGGGTGGTGAAAGTTTTCGAAGCGATCACGAACAATGTGGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCCAAACGCATTTTCATCCCGAATTGTCCAGCAGCCAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGTCTCAAAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCCCAATATCTTAAAATCCGTCCCGCTTCACCGGCAGGATCAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATTTAGACTTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTTCATCTACACGCGCTTGCTTCGACTCTGGACC</t>
   </si>
   <si>
     <t>CCAGGTCTCAGGCACCTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGTAATTGGGCAACATCACTGATACTCTTGAACGCTGTTGTCCATCTTTGATGTGAGCATTCCAGTGACATGCGGACAGGACCTTGGGTTCGTTGCACTTTATGCCAAGCAGTTTATTTAAAACTGCGGGAGAAACACTCCTCGATGGGTTTGTACACAACTTTAACTAGAAAGTTCAAGAGGTATTTGCGATGGCAAACATCAAGTCTCAGATCAAGCGTAACAAGACCAACGAGAAGGCTCGTCTGCGTAACCAGGCAGTTCGCTCCGCAGTCCGCACCGAGATCCGCAAGTTCAACGCTGCGATTGAAGCAGGCGACAAGGATGCAGCTCAGGCTCAGCTCCGTACCGCTTCCCGCGCACTGGACAAGGCAGTAACCAAGGGTGTCTTCCACATCAACAACGCTGCTAACAAGAAGTCCAACATGGCTACCGCTTTCAACAAGCTTGGCTAATTTTTGGCTCTTTTGAAAATGGCTTCCTATCAGTTTTGATTGGAAGCCATTTTTTATGCCTTTACCCGAGTAAACCGGTCAGGCCTTCATACAGCAGAGTCACACCCACAACGAGGAAGACAACGCCAGCAAGCAGGTCAAACCAGGGACCTGCACGCAGACTCTGGACC</t>
@@ -448,10 +448,10 @@
     <t>CGAACGCCTGCGCAATGGC</t>
   </si>
   <si>
-    <t>ATCGTGCTGATGGCCGACGC</t>
-  </si>
-  <si>
-    <t>ACTGGCATTAATCTCGGCTTCGCA</t>
+    <t>TGCGCTACCACAAGATCGTGCT</t>
+  </si>
+  <si>
+    <t>TTCAGTCGGTCACGCAAGGA</t>
   </si>
   <si>
     <t>CCCTGCATTACTTGTCCCGGCA</t>
@@ -460,7 +460,7 @@
     <t>tgaaagacgttacgatcgcc</t>
   </si>
   <si>
-    <t>CCGGATCGCTTTGAGGGTCGT</t>
+    <t>TCGCAACAACCCGGATCGCT</t>
   </si>
   <si>
     <t>TTCCCTGATTATGCTGCTGC</t>
@@ -481,7 +481,7 @@
     <t>actgctgtctaacttcttcgccca</t>
   </si>
   <si>
-    <t>TCGCATTTTTGGGATTGAGCGGC</t>
+    <t>AGGGGTAAGTTCCTCCGCCA</t>
   </si>
   <si>
     <t>TATGGTCAATGTCGCGGGGG</t>
@@ -505,7 +505,7 @@
     <t>TCAGGTTGGAGCGAAACTGC</t>
   </si>
   <si>
-    <t>CCGGACCGGCATGTTCCTCA</t>
+    <t>GAGGACCGGCATGTTCCTCA</t>
   </si>
   <si>
     <t>GCCCTGGCTGCGAGTCTCAT</t>
@@ -514,7 +514,7 @@
     <t>ACGAAGAGTGTTGCAACCGC</t>
   </si>
   <si>
-    <t>CGTTTCCATCTTACACGCGGCC</t>
+    <t>AAACCGGCCAGGAATGCCCA</t>
   </si>
   <si>
     <t>AGTCCGACAATTAGCCTAGGTGA</t>
@@ -526,19 +526,19 @@
     <t>CGAACCCAAGCTGAGCGCGA</t>
   </si>
   <si>
-    <t>GCGTCCATGGATGATCTGCGC</t>
+    <t>TGCGCATTCTTGATTACATCCCGC</t>
   </si>
   <si>
     <t>GGGCAGGTGTTGTGCGGTTT</t>
   </si>
   <si>
-    <t>GGAACGTGAAGAAGTGGCACA</t>
+    <t>CGGCGCGCTTGAAGGTGAC</t>
   </si>
   <si>
     <t>GGCACCTGCGTCGGTTGGAA</t>
   </si>
   <si>
-    <t>GCGCAGGTCTCCCGCATATCC</t>
+    <t>GCTACGAAGGCTCTGCGTGC</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1172,7 @@
         <v>61</v>
       </c>
       <c r="F3">
-        <v>1074</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1192,7 +1192,7 @@
         <v>62</v>
       </c>
       <c r="F4">
-        <v>1060</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1232,7 +1232,7 @@
         <v>64</v>
       </c>
       <c r="F6">
-        <v>1047</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1252,7 +1252,7 @@
         <v>65</v>
       </c>
       <c r="F7">
-        <v>1058</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1272,7 +1272,7 @@
         <v>66</v>
       </c>
       <c r="F8">
-        <v>1050</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1292,7 +1292,7 @@
         <v>67</v>
       </c>
       <c r="F9">
-        <v>1046</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1956,7 +1956,7 @@
         <v>142</v>
       </c>
       <c r="J3">
-        <v>65.90247007317328</v>
+        <v>64.78597081263268</v>
       </c>
       <c r="Q3" t="s">
         <v>154</v>
@@ -1994,7 +1994,7 @@
         <v>143</v>
       </c>
       <c r="J4">
-        <v>65.02802783225161</v>
+        <v>61.74033218325854</v>
       </c>
       <c r="Q4" t="s">
         <v>154</v>
@@ -2088,7 +2088,7 @@
         <v>153</v>
       </c>
       <c r="P6">
-        <v>64.89702037417891</v>
+        <v>62.75885207959993</v>
       </c>
       <c r="Q6" t="s">
         <v>154</v>
@@ -2126,7 +2126,7 @@
         <v>146</v>
       </c>
       <c r="J7">
-        <v>64.76421932244233</v>
+        <v>64.89768659828428</v>
       </c>
       <c r="Q7" t="s">
         <v>154</v>
@@ -2329,7 +2329,7 @@
         <v>164</v>
       </c>
       <c r="F2">
-        <v>64.54478868925031</v>
+        <v>64.92306747221159</v>
       </c>
       <c r="G2" t="s">
         <v>133</v>
@@ -2341,7 +2341,7 @@
         <v>142</v>
       </c>
       <c r="J2">
-        <v>65.90247007317328</v>
+        <v>64.78597081263268</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2457,7 +2457,7 @@
         <v>168</v>
       </c>
       <c r="F6">
-        <v>64.3466720922728</v>
+        <v>64.31358443072048</v>
       </c>
       <c r="G6" t="s">
         <v>137</v>
@@ -2469,7 +2469,7 @@
         <v>146</v>
       </c>
       <c r="J6">
-        <v>64.76421932244233</v>
+        <v>64.89768659828428</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2515,13 +2515,13 @@
         <v>161</v>
       </c>
       <c r="D8">
-        <v>64.65757412841236</v>
+        <v>61.89943671198756</v>
       </c>
       <c r="E8" t="s">
         <v>170</v>
       </c>
       <c r="F8">
-        <v>61.07752647485643</v>
+        <v>64.77108646591313</v>
       </c>
       <c r="G8" t="s">
         <v>134</v>
@@ -2533,7 +2533,7 @@
         <v>143</v>
       </c>
       <c r="J8">
-        <v>65.02802783225161</v>
+        <v>61.74033218325854</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2591,7 +2591,7 @@
         <v>172</v>
       </c>
       <c r="F10">
-        <v>65.52731071342237</v>
+        <v>64.06944111481556</v>
       </c>
       <c r="G10" t="s">
         <v>136</v>
@@ -2621,7 +2621,7 @@
         <v>153</v>
       </c>
       <c r="P10">
-        <v>64.89702037417891</v>
+        <v>62.75885207959993</v>
       </c>
     </row>
   </sheetData>
